--- a/data/trans_orig/P44AS4-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P44AS4-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C1B6FCC-8847-4AF1-8985-AF9C19866C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA56C321-9FF3-44E6-A59A-26C3CB592F94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6D50F864-C3AE-43B4-A195-121D508980CC}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C92068D7-53E4-4A39-8639-751C9E9F31B9}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -512,7 +512,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6D2B7ED-6B1D-49F2-A8FF-EDD8B0325D91}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A920CDFA-C7F9-4C26-BF78-15D363B7DD2C}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1039,7 +1039,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E480E0D-35AC-4BDB-9E5F-AB8D046F0B42}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBFE8060-4987-48D5-B4E1-A28CBE386D34}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1554,7 +1554,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{092C22CB-94A3-4F7C-9B9B-D958B5472C7A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F249CDA-8518-4F62-90D7-F5A4803539A2}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P44AS4-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P44AS4-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA56C321-9FF3-44E6-A59A-26C3CB592F94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F2B6A9D-97BE-4617-BA81-7EE30A5C70AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C92068D7-53E4-4A39-8639-751C9E9F31B9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{ABE5E9FF-A3F7-45C9-943C-9BEC55F715C9}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -97,7 +97,7 @@
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población según el tipo de prueba que le han realizado para detectarle el Cáncer de colon / respuesta 4 en 2015 (Tasa respuesta: 0,02%)</t>
+    <t>Población según el tipo de prueba que le han realizado para detectarle el Cáncer de colon / respuesta 4 en 2016 (Tasa respuesta: 0,02%)</t>
   </si>
   <si>
     <t>Población según el tipo de prueba que le han realizado para detectarle el Cáncer de colon / respuesta 4 en 2023 (Tasa respuesta: 0,01%)</t>
@@ -512,7 +512,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A920CDFA-C7F9-4C26-BF78-15D363B7DD2C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C36670CB-C715-44E9-8B67-4E824D38B4CF}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1039,7 +1039,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBFE8060-4987-48D5-B4E1-A28CBE386D34}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28BE71CD-7D42-4DE4-901E-4767352E1621}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1554,7 +1554,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F249CDA-8518-4F62-90D7-F5A4803539A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA073B57-D1D8-4A71-991A-EC1624405D93}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
